--- a/app/model/data/Task-2/test_to-submit.xlsx
+++ b/app/model/data/Task-2/test_to-submit.xlsx
@@ -5266,7 +5266,7 @@
         <v>603</v>
       </c>
       <c r="B604" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="605">
@@ -5306,7 +5306,7 @@
         <v>608</v>
       </c>
       <c r="B609" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="610">
@@ -5338,7 +5338,7 @@
         <v>612</v>
       </c>
       <c r="B613" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="614">
@@ -5354,7 +5354,7 @@
         <v>614</v>
       </c>
       <c r="B615" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="616">
@@ -5394,7 +5394,7 @@
         <v>619</v>
       </c>
       <c r="B620" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="621">
@@ -5410,7 +5410,7 @@
         <v>621</v>
       </c>
       <c r="B622" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="623">
@@ -5418,7 +5418,7 @@
         <v>622</v>
       </c>
       <c r="B623" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="624">
@@ -5426,7 +5426,7 @@
         <v>623</v>
       </c>
       <c r="B624" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="625">
@@ -5450,7 +5450,7 @@
         <v>626</v>
       </c>
       <c r="B627" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="628">
@@ -5466,7 +5466,7 @@
         <v>628</v>
       </c>
       <c r="B629" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="630">
@@ -5522,7 +5522,7 @@
         <v>635</v>
       </c>
       <c r="B636" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="637">
@@ -5530,7 +5530,7 @@
         <v>636</v>
       </c>
       <c r="B637" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="638">
@@ -5554,7 +5554,7 @@
         <v>639</v>
       </c>
       <c r="B640" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="641">
@@ -5594,7 +5594,7 @@
         <v>644</v>
       </c>
       <c r="B645" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="646">
@@ -5658,7 +5658,7 @@
         <v>652</v>
       </c>
       <c r="B653" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="654">
@@ -5674,7 +5674,7 @@
         <v>654</v>
       </c>
       <c r="B655" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="656">
@@ -5730,7 +5730,7 @@
         <v>661</v>
       </c>
       <c r="B662" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="663">
@@ -5786,7 +5786,7 @@
         <v>668</v>
       </c>
       <c r="B669" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="670">
@@ -5906,7 +5906,7 @@
         <v>683</v>
       </c>
       <c r="B684" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="685">
@@ -5914,7 +5914,7 @@
         <v>684</v>
       </c>
       <c r="B685" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="686">
@@ -5938,7 +5938,7 @@
         <v>687</v>
       </c>
       <c r="B688" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="689">
@@ -5986,7 +5986,7 @@
         <v>693</v>
       </c>
       <c r="B694" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="695">
@@ -6082,7 +6082,7 @@
         <v>705</v>
       </c>
       <c r="B706" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="707">
@@ -6098,7 +6098,7 @@
         <v>707</v>
       </c>
       <c r="B708" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="709">
@@ -6106,7 +6106,7 @@
         <v>708</v>
       </c>
       <c r="B709" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="710">
@@ -6130,7 +6130,7 @@
         <v>711</v>
       </c>
       <c r="B712" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="713">
@@ -6242,7 +6242,7 @@
         <v>725</v>
       </c>
       <c r="B726" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="727">
@@ -6266,7 +6266,7 @@
         <v>728</v>
       </c>
       <c r="B729" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="730">
@@ -6330,7 +6330,7 @@
         <v>736</v>
       </c>
       <c r="B737" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="738">
@@ -6378,7 +6378,7 @@
         <v>742</v>
       </c>
       <c r="B743" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="744">
@@ -6402,7 +6402,7 @@
         <v>745</v>
       </c>
       <c r="B746" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="747">
@@ -6426,7 +6426,7 @@
         <v>748</v>
       </c>
       <c r="B749" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="750">
@@ -6442,7 +6442,7 @@
         <v>750</v>
       </c>
       <c r="B751" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="752">
@@ -6490,7 +6490,7 @@
         <v>756</v>
       </c>
       <c r="B757" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="758">
@@ -6562,7 +6562,7 @@
         <v>765</v>
       </c>
       <c r="B766" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="767">
@@ -6618,7 +6618,7 @@
         <v>772</v>
       </c>
       <c r="B773" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="774">
@@ -6706,7 +6706,7 @@
         <v>783</v>
       </c>
       <c r="B784" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="785">
@@ -6826,7 +6826,7 @@
         <v>798</v>
       </c>
       <c r="B799" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="800">
